--- a/用例数据/转融通/出借交易单元报备/测试结果.xlsx
+++ b/用例数据/转融通/出借交易单元报备/测试结果.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\转融通\出借交易单元报备\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B5DF29-2E34-4590-A269-9AEF8D404EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rc_lenddeskapply" sheetId="1" r:id="rId1"/>
+    <sheet name="rc_LendDeskCfm" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +25,146 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+  <si>
+    <t>EXCHID</t>
+  </si>
+  <si>
+    <t>DESKID</t>
+  </si>
+  <si>
+    <t>ACCTID</t>
+  </si>
+  <si>
+    <t>OPTID</t>
+  </si>
+  <si>
+    <t>OPTTIME</t>
+  </si>
+  <si>
+    <t>EXPOPTID</t>
+  </si>
+  <si>
+    <t>EXPTIME</t>
+  </si>
+  <si>
+    <t>FULLNAME</t>
+  </si>
+  <si>
+    <t>SETTLECODE</t>
+  </si>
+  <si>
+    <t>SETTLECODEORG</t>
+  </si>
+  <si>
+    <t>PRODUCTNAME</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>PRODUCTCUSTODIAN</t>
+  </si>
+  <si>
+    <t>PARTICIPANTCODE1</t>
+  </si>
+  <si>
+    <t>PARTICIPANTCODE2</t>
+  </si>
+  <si>
+    <t>LENDERTYPE</t>
+  </si>
+  <si>
+    <t>OPTRESULT</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>00W40</t>
+  </si>
+  <si>
+    <t>000001324165</t>
+  </si>
+  <si>
+    <t>99990</t>
+  </si>
+  <si>
+    <t>20230722095807</t>
+  </si>
+  <si>
+    <t>20230722143457</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>077011</t>
+  </si>
+  <si>
+    <t>999999999996</t>
+  </si>
+  <si>
+    <t>20230722143819</t>
+  </si>
+  <si>
+    <t>PARTICIPANTCODE</t>
+  </si>
+  <si>
+    <t>BROKERNAME</t>
+  </si>
+  <si>
+    <t>PRODUCTREGID</t>
+  </si>
+  <si>
+    <t>ORDERDATE</t>
+  </si>
+  <si>
+    <t>SENDDATE</t>
+  </si>
+  <si>
+    <t>000099</t>
+  </si>
+  <si>
+    <t>100226</t>
+  </si>
+  <si>
+    <t>瑞银证券有限责任公司</t>
+  </si>
+  <si>
+    <t>20230722</t>
+  </si>
+  <si>
+    <t>040000000000236072</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>B001205100</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +188,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +470,279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597790E5-87D4-4D69-886C-8A53695E0498}">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>